--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445196.1016224608</v>
+        <v>-447897.7495249956</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>116.8405921356975</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>122.3900900648002</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>32.54455978945983</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>56.87662676879118</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>317.2430745849344</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.8707348436268</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>131.593489927882</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>204.4045884656264</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>37.09403929263085</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>7.748843519395543</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>336.8919534243673</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>383.4393174847118</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>411.830884450382</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731851</v>
+        <v>129.9052178731852</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>135.6009103454408</v>
+        <v>129.5454498508467</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29488917436606</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433989</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282948</v>
+        <v>30.34503645282959</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1789700647269</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>8.354885691991072</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332412</v>
+        <v>16.89051046332422</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099022</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2691031313611</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>141.3626854133935</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>218.6628671530099</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184569</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615218</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>229.3332329370432</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530795</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>67.99978162943401</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>50.04039518888496</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187886</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>64.91921363453612</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8170508184374</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174132</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560515</v>
       </c>
     </row>
     <row r="21">
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703281</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766911</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>164.598199422793</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701334</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712582</v>
+        <v>123.7971820797025</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797018</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146484</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018859</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.08971311158709</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176351</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856545</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428175</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856545</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514853074</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428298</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712584</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268585</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268585</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="D2" t="n">
-        <v>322.4426321268585</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E2" t="n">
-        <v>322.4426321268585</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0228471103738</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4328,13 +4328,13 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433432</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268585</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268585</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268585</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268585</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268585</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268585</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.654732181024</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C3" t="n">
-        <v>351.201702899897</v>
+        <v>196.8097493511829</v>
       </c>
       <c r="D3" t="n">
-        <v>227.5753492990887</v>
+        <v>47.87533968993168</v>
       </c>
       <c r="E3" t="n">
-        <v>227.5753492990887</v>
+        <v>47.87533968993168</v>
       </c>
       <c r="F3" t="n">
-        <v>227.5753492990887</v>
+        <v>47.87533968993168</v>
       </c>
       <c r="G3" t="n">
-        <v>90.0361681215378</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>90.0361681215378</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330559</v>
@@ -4416,10 +4416,10 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476347</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>525.654732181024</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W3" t="n">
-        <v>525.654732181024</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>525.654732181024</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y3" t="n">
-        <v>525.654732181024</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="4">
@@ -4468,16 +4468,16 @@
         <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
         <v>15.00204697330559</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1138.113490527229</v>
+        <v>1392.578675329481</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.113490527229</v>
+        <v>1392.578675329481</v>
       </c>
       <c r="D5" t="n">
-        <v>779.8477919204781</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E5" t="n">
-        <v>779.8477919204781</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4568,7 +4568,7 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
         <v>669.5878927711865</v>
@@ -4592,25 +4592,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>1914.852662567162</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>1914.852662567162</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.852662567162</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.852662567162</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="Y5" t="n">
-        <v>1524.71333059135</v>
+        <v>1392.578675329481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>581.4725702327146</v>
+        <v>614.1854224144272</v>
       </c>
       <c r="C6" t="n">
-        <v>581.4725702327146</v>
+        <v>614.1854224144272</v>
       </c>
       <c r="D6" t="n">
-        <v>581.4725702327146</v>
+        <v>614.1854224144272</v>
       </c>
       <c r="E6" t="n">
-        <v>422.235115227259</v>
+        <v>454.9479674089717</v>
       </c>
       <c r="F6" t="n">
-        <v>275.700557254144</v>
+        <v>308.4134094358567</v>
       </c>
       <c r="G6" t="n">
-        <v>138.8245634692599</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T6" t="n">
-        <v>1627.262386835205</v>
+        <v>1539.52797744664</v>
       </c>
       <c r="U6" t="n">
-        <v>1399.160796968469</v>
+        <v>1311.426387579904</v>
       </c>
       <c r="V6" t="n">
-        <v>1164.008688736726</v>
+        <v>1076.274279348162</v>
       </c>
       <c r="W6" t="n">
-        <v>957.5394074583155</v>
+        <v>822.03692261996</v>
       </c>
       <c r="X6" t="n">
-        <v>749.6879072527827</v>
+        <v>614.1854224144272</v>
       </c>
       <c r="Y6" t="n">
-        <v>749.6879072527827</v>
+        <v>614.1854224144272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.1756092975578</v>
+        <v>512.462232374543</v>
       </c>
       <c r="C7" t="n">
-        <v>99.1756092975578</v>
+        <v>343.5260494466361</v>
       </c>
       <c r="D7" t="n">
-        <v>61.70688273934482</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="E7" t="n">
-        <v>61.70688273934482</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F7" t="n">
-        <v>61.70688273934482</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934482</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>388.3019303235343</v>
+        <v>512.462232374543</v>
       </c>
       <c r="T7" t="n">
-        <v>388.3019303235343</v>
+        <v>512.462232374543</v>
       </c>
       <c r="U7" t="n">
-        <v>99.1756092975578</v>
+        <v>512.462232374543</v>
       </c>
       <c r="V7" t="n">
-        <v>99.1756092975578</v>
+        <v>512.462232374543</v>
       </c>
       <c r="W7" t="n">
-        <v>99.1756092975578</v>
+        <v>512.462232374543</v>
       </c>
       <c r="X7" t="n">
-        <v>99.1756092975578</v>
+        <v>512.462232374543</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.1756092975578</v>
+        <v>512.462232374543</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>761.7974943979398</v>
+        <v>1154.632811180076</v>
       </c>
       <c r="C8" t="n">
-        <v>761.7974943979398</v>
+        <v>1154.632811180076</v>
       </c>
       <c r="D8" t="n">
-        <v>403.5317957911893</v>
+        <v>1154.632811180076</v>
       </c>
       <c r="E8" t="n">
-        <v>63.23689334233337</v>
+        <v>1154.632811180076</v>
       </c>
       <c r="F8" t="n">
-        <v>56.2913925931299</v>
+        <v>767.3203692763269</v>
       </c>
       <c r="G8" t="n">
-        <v>44.34100425941071</v>
+        <v>351.3295769022036</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941071</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941071</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="J8" t="n">
-        <v>156.82805594203</v>
+        <v>156.8280559420296</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002246</v>
+        <v>376.1555054002238</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707946</v>
+        <v>685.1523625707928</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937551</v>
+        <v>1060.640340937548</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733709</v>
+        <v>1446.817915733707</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659513</v>
+        <v>1798.139187659508</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284337</v>
+        <v>2063.482764284332</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.57199322852</v>
+        <v>2214.571993228515</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970536</v>
+        <v>2217.05021297053</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.83282117944</v>
+        <v>2085.832821179433</v>
       </c>
       <c r="T8" t="n">
-        <v>2085.83282117944</v>
+        <v>1875.835030499459</v>
       </c>
       <c r="U8" t="n">
-        <v>1832.228877075746</v>
+        <v>1875.835030499459</v>
       </c>
       <c r="V8" t="n">
-        <v>1501.165989732176</v>
+        <v>1544.772143155888</v>
       </c>
       <c r="W8" t="n">
-        <v>1148.397334462062</v>
+        <v>1544.772143155888</v>
       </c>
       <c r="X8" t="n">
-        <v>1148.397334462062</v>
+        <v>1544.772143155888</v>
       </c>
       <c r="Y8" t="n">
-        <v>1148.397334462062</v>
+        <v>1154.632811180076</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>636.0180434097788</v>
+        <v>738.6903874457632</v>
       </c>
       <c r="C9" t="n">
-        <v>499.0474268992325</v>
+        <v>607.8363976974332</v>
       </c>
       <c r="D9" t="n">
-        <v>350.1130172379812</v>
+        <v>458.9019880361819</v>
       </c>
       <c r="E9" t="n">
-        <v>190.8755622325257</v>
+        <v>458.9019880361819</v>
       </c>
       <c r="F9" t="n">
-        <v>44.34100425941071</v>
+        <v>312.3674300630669</v>
       </c>
       <c r="G9" t="n">
-        <v>44.34100425941071</v>
+        <v>175.5129734904267</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941071</v>
+        <v>80.26561068803674</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941071</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113529</v>
+        <v>92.51967467113502</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154166</v>
+        <v>253.0195209154161</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572549</v>
+        <v>515.1539122572541</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449748</v>
+        <v>840.4092510449734</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738687</v>
+        <v>1188.681775738685</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074215</v>
+        <v>1485.063300074213</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566945</v>
+        <v>1703.602536566943</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257643</v>
+        <v>1799.77103225764</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285088</v>
+        <v>1769.119480285085</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285088</v>
+        <v>1630.554864058088</v>
       </c>
       <c r="T9" t="n">
-        <v>1769.119480285088</v>
+        <v>1435.93135261124</v>
       </c>
       <c r="U9" t="n">
-        <v>1541.01930734021</v>
+        <v>1435.93135261124</v>
       </c>
       <c r="V9" t="n">
-        <v>1305.867199108467</v>
+        <v>1200.779244379498</v>
       </c>
       <c r="W9" t="n">
-        <v>1051.629842380265</v>
+        <v>946.5418876512961</v>
       </c>
       <c r="X9" t="n">
-        <v>843.7783421747326</v>
+        <v>738.6903874457632</v>
       </c>
       <c r="Y9" t="n">
-        <v>636.0180434097788</v>
+        <v>738.6903874457632</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.761084908934</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="C10" t="n">
-        <v>506.3218064321753</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="D10" t="n">
-        <v>356.2051670198396</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="E10" t="n">
-        <v>208.2920734374464</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="F10" t="n">
-        <v>61.40212593953608</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="G10" t="n">
-        <v>61.40212593953608</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="H10" t="n">
-        <v>61.40212593953608</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="I10" t="n">
-        <v>61.40212593953608</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941071</v>
+        <v>44.3410042594106</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016765</v>
+        <v>95.74470838016737</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810365</v>
+        <v>191.429549681036</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422665</v>
+        <v>295.5740818422657</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091254</v>
+        <v>405.0998157091244</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712736</v>
+        <v>485.9514692712725</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139746</v>
+        <v>536.0720553139734</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.761084908934</v>
+        <v>536.0720553139734</v>
       </c>
       <c r="R10" t="n">
-        <v>514.761084908934</v>
+        <v>427.719425888356</v>
       </c>
       <c r="S10" t="n">
-        <v>514.761084908934</v>
+        <v>427.719425888356</v>
       </c>
       <c r="T10" t="n">
-        <v>514.761084908934</v>
+        <v>204.1927172661962</v>
       </c>
       <c r="U10" t="n">
-        <v>514.761084908934</v>
+        <v>204.1927172661962</v>
       </c>
       <c r="V10" t="n">
-        <v>514.761084908934</v>
+        <v>204.1927172661962</v>
       </c>
       <c r="W10" t="n">
-        <v>514.761084908934</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="X10" t="n">
-        <v>514.761084908934</v>
+        <v>61.40212593953607</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.761084908934</v>
+        <v>61.40212593953607</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1875.62966110938</v>
+        <v>2333.452899754456</v>
       </c>
       <c r="C11" t="n">
-        <v>1506.667144168968</v>
+        <v>1964.490382814044</v>
       </c>
       <c r="D11" t="n">
-        <v>1148.401445562218</v>
+        <v>1606.224684207294</v>
       </c>
       <c r="E11" t="n">
-        <v>1148.401445562217</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>737.4155407726097</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="G11" t="n">
-        <v>322.799776213755</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706889</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656951</v>
+        <v>695.1615405656954</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087828</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.60089048404</v>
+        <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535294</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464056</v>
+        <v>3789.749829464058</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796032</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345373</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926737</v>
+        <v>3672.904689377398</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048266</v>
+        <v>3672.904689377398</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704696</v>
+        <v>3341.841802033827</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434581</v>
+        <v>3341.841802033827</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173501</v>
+        <v>3110.192071794389</v>
       </c>
       <c r="Y11" t="n">
-        <v>2262.229501173501</v>
+        <v>2720.052739818578</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
@@ -5115,25 +5115,25 @@
         <v>88.13208718390847</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335447</v>
+        <v>84.53144813504377</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914959</v>
+        <v>503.2284887929952</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948024</v>
+        <v>1011.185054749523</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649233</v>
+        <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
-        <v>2284.877530981756</v>
+        <v>2014.935408783256</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>921.8573747250155</v>
+        <v>691.3935293364664</v>
       </c>
       <c r="C13" t="n">
-        <v>752.9211917971086</v>
+        <v>522.4573464085595</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>372.3407069962238</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>224.4276134138308</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648142</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344803</v>
+        <v>710.5788654344807</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276102</v>
+        <v>2086.817115016661</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710543</v>
+        <v>1865.925782451101</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659993</v>
+        <v>1865.925782451101</v>
       </c>
       <c r="V13" t="n">
-        <v>1439.264095659993</v>
+        <v>1611.241294245214</v>
       </c>
       <c r="W13" t="n">
-        <v>1149.846925623033</v>
+        <v>1321.824124208254</v>
       </c>
       <c r="X13" t="n">
-        <v>921.8573747250155</v>
+        <v>1093.834573310236</v>
       </c>
       <c r="Y13" t="n">
-        <v>921.8573747250155</v>
+        <v>873.0419941667061</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362664</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327647</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>594.8179559048579</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>555.8158034133955</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630045</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057246</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.487582220359</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5841,7 +5841,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400726</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138421</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703123</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,16 +5984,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400768</v>
+        <v>802.9288273958733</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556309</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556309</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556309</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487573</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510514</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854712</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648825</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611864</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138467</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703165</v>
+        <v>984.5772922261131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075799</v>
@@ -6260,16 +6260,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708873</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.395944601127</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,16 +6598,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,22 +6646,22 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
         <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
         <v>753.3092412490405</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188002</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908934</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327548</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925701</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490399</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6941,16 +6941,16 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7263,7 +7263,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400736</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138431</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703133</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7497,10 +7497,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400713</v>
+        <v>653.7474797708869</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121644</v>
+        <v>484.81129684298</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121644</v>
+        <v>484.81129684298</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121644</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121644</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703111</v>
+        <v>835.3959446011266</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138426</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
   </sheetData>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>71.31463618636485</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>140.3978677414258</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>80.61569138877834</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927379</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905246</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>136.1942938031519</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.969624463526998e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0033420516647</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462176</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185549</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>152.4862366927521</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>32.89260457059979</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194073</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856546</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392193671</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.925938869475849</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038636</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194282</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194176</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194206</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194262</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.52575990662527</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405053</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>138.4949402405063</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194079</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856545</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038623</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="E2" t="n">
-        <v>256406.2354960385</v>
+        <v>256406.2354960386</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="J2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="K2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="L2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="K2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="L2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="P2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264358</v>
+        <v>12262.85603264242</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.956767448</v>
+        <v>395943.9567674496</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704298</v>
+        <v>189308.2687704293</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.723256517081231e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>91259.95686487782</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349950082</v>
+        <v>3074.447349949774</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931112</v>
+        <v>103409.2608931117</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202391</v>
+        <v>49839.5741320238</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607416</v>
+        <v>170817.882760742</v>
       </c>
       <c r="E4" t="n">
         <v>15331.22144723313</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687982</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687979</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687975</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687975</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="L4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687968</v>
       </c>
-      <c r="M4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="N4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687968</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404176</v>
+        <v>86153.75444404164</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738558</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>-364547.6967784482</v>
       </c>
       <c r="D6" t="n">
-        <v>18130.12621507206</v>
+        <v>18130.12621507302</v>
       </c>
       <c r="E6" t="n">
-        <v>-240006.4277860282</v>
+        <v>-240227.5591000045</v>
       </c>
       <c r="F6" t="n">
-        <v>-23366.12870971439</v>
+        <v>-23400.86663514969</v>
       </c>
       <c r="G6" t="n">
-        <v>165942.1400607153</v>
+        <v>165907.4021352795</v>
       </c>
       <c r="H6" t="n">
-        <v>165942.1400607153</v>
+        <v>165907.4021352795</v>
       </c>
       <c r="I6" t="n">
-        <v>165942.1400607154</v>
+        <v>165907.4021352798</v>
       </c>
       <c r="J6" t="n">
-        <v>116877.1953321707</v>
+        <v>116842.4574067351</v>
       </c>
       <c r="K6" t="n">
-        <v>74682.18319583764</v>
+        <v>74647.44527040189</v>
       </c>
       <c r="L6" t="n">
-        <v>162867.6927107653</v>
+        <v>162832.9547853298</v>
       </c>
       <c r="M6" t="n">
-        <v>62532.87916760419</v>
+        <v>62498.14124216794</v>
       </c>
       <c r="N6" t="n">
-        <v>116102.5659286914</v>
+        <v>116067.8280032559</v>
       </c>
       <c r="O6" t="n">
-        <v>165942.1400607153</v>
+        <v>165907.4021352797</v>
       </c>
       <c r="P6" t="n">
-        <v>165942.1400607153</v>
+        <v>165907.4021352797</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573219</v>
+        <v>863.6234498573211</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26793,10 +26793,10 @@
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426339</v>
+        <v>554.2625532426324</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490079</v>
+        <v>969.2208239490084</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319637806</v>
+        <v>9.91278531963701</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576278</v>
+        <v>338.617787357629</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126724</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>354.5893695598434</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651647068</v>
+        <v>12.14759651646916</v>
       </c>
       <c r="E4" t="n">
-        <v>414.958270706374</v>
+        <v>414.958270706376</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.48746415064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>354.5893695598436</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647068</v>
+        <v>12.14759651646916</v>
       </c>
       <c r="M4" t="n">
-        <v>414.958270706374</v>
+        <v>414.958270706376</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647068</v>
+        <v>12.14759651646916</v>
       </c>
       <c r="M4" t="n">
-        <v>414.958270706374</v>
+        <v>414.958270706376</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>296.2572410943606</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413185</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.05497549983852</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>103.6192295763155</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27515,10 +27515,10 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377791</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2177245773851</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>297.8064148518918</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>89.63297115677705</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>208.0722578696039</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.913743919153262</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>47.29039469529317</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>111.5214337255815</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>189.4388472402203</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>45.03841664789445</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>23.43672825699963</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163649</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.6272742915138</v>
+        <v>76.62727429151394</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>37.10758864287493</v>
+        <v>43.16304913746902</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436606</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433982</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323794</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>158.8919354066368</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.433625596421</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099037</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313611</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930954</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2340827876525</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>145.1603129231975</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28737,10 +28737,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6.281197784119286e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.06297193269711e-11</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>2.025414319020989e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.577047646176819e-12</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29284,13 +29284,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.47185306475305</v>
+        <v>3.471853064753047</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940219</v>
+        <v>35.55611519940215</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788921</v>
+        <v>133.848615278892</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545845</v>
+        <v>294.6691890545842</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855812</v>
+        <v>441.6327292855808</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160175</v>
+        <v>547.8844525160169</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563195</v>
+        <v>609.627019456319</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765492</v>
+        <v>619.4914219765486</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639109</v>
+        <v>584.9681830639104</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278199</v>
+        <v>499.2568105278195</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463512</v>
+        <v>374.9210726463509</v>
       </c>
       <c r="R8" t="n">
-        <v>218.088790078794</v>
+        <v>218.0887900787938</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306022</v>
+        <v>79.11485171306015</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095649</v>
+        <v>15.19803679095647</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277748245180244</v>
+        <v>0.2777482451802437</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296881</v>
+        <v>1.857605156296879</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213041</v>
+        <v>17.94055506213039</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566017</v>
+        <v>63.95701963566011</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148733</v>
+        <v>175.5029503148732</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867644</v>
+        <v>299.9624957867641</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564786</v>
+        <v>403.3365932564782</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722404</v>
+        <v>470.6747801722399</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668805</v>
+        <v>483.1321410668801</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510391</v>
+        <v>441.9715215510387</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423404</v>
+        <v>354.7211109423401</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230896</v>
+        <v>237.1216687230894</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111345</v>
+        <v>115.3344675111344</v>
       </c>
       <c r="S9" t="n">
-        <v>34.5042010391109</v>
+        <v>34.50420103911087</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442251</v>
+        <v>7.487452362442244</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458475</v>
+        <v>0.1222108655458474</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037794</v>
+        <v>1.557353762037792</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8462907206633</v>
+        <v>13.84629072066329</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291839</v>
+        <v>46.83387495291834</v>
       </c>
       <c r="J10" t="n">
-        <v>110.104910976072</v>
+        <v>110.1049109760719</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258454</v>
+        <v>180.9361916258453</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306007</v>
+        <v>231.5360311306005</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801606</v>
+        <v>244.1222810801604</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762018</v>
+        <v>238.3175988762016</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833057</v>
+        <v>220.1248753833055</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377345</v>
+        <v>188.3548586377343</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284556</v>
+        <v>130.4071409284555</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580841</v>
+        <v>70.02428824580834</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387681</v>
+        <v>27.14042874387679</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343298</v>
+        <v>6.654147892343292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842519</v>
+        <v>0.08494656883842512</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869141</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639235</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203914</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975122</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544651</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954554</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180162</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956799</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620353</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825966</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495312</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469204</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598378</v>
+        <v>144.9058654583217</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747744</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821475</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340501</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>615.263965992447</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>221.13476503683</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047538</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.1969510279845</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811703</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493537</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377478</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34957,7 +34957,7 @@
         <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278982</v>
+        <v>113.6232845278979</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406007</v>
+        <v>221.5428782406002</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460303</v>
+        <v>312.1180375460297</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290468</v>
+        <v>379.2807862290463</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799583</v>
+        <v>390.0783583799577</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422242</v>
+        <v>354.8699716422236</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725504</v>
+        <v>268.0238147725499</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719017</v>
+        <v>152.6153827719014</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661882</v>
+        <v>2.503252264661654</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820665</v>
+        <v>48.66532364820648</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124054</v>
+        <v>162.1210568124051</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766044</v>
+        <v>264.782213476604</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502221</v>
+        <v>328.5407462502216</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835473</v>
+        <v>351.7904289835468</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065946</v>
+        <v>299.3752771065942</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280102</v>
+        <v>220.7467035280098</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1398946370681</v>
+        <v>97.1398946370679</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345531004</v>
+        <v>51.92293345530987</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936243</v>
+        <v>96.65135484936221</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325556</v>
+        <v>105.1964971325554</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109686</v>
+        <v>110.6320544109684</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146287</v>
+        <v>81.66833693146268</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858689</v>
+        <v>50.62685458858672</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937051</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525317</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844779</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681827</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739931</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067658</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081471</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553057</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854788</v>
+        <v>7.064426483962732</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949002</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507168</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480025</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>87.16035762249979</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187323</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186267</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388467</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
         <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776303</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572999039</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
